--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh sach dang ky" sheetId="6" r:id="rId1"/>
+    <sheet name="TOEIC" sheetId="7" r:id="rId1"/>
+    <sheet name="Cambridge" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,47 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Số ĐT</t>
-  </si>
-  <si>
-    <t>Khóa học</t>
-  </si>
-  <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
-    <t>Trương Thị Thanh Hoài</t>
-  </si>
-  <si>
-    <t>TOEIC 500-700</t>
-  </si>
-  <si>
-    <t>2,4,6 - 19:30 - 21:00</t>
-  </si>
-  <si>
-    <t>Trần Thị Phương Hòa</t>
-  </si>
-  <si>
-    <t>TOEIC 300-500</t>
-  </si>
-  <si>
-    <t>2,4,6 17:30 - 19:00 or 3,5,7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="199">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
   <si>
-    <t>2,4,6 15:00 - 16:30</t>
-  </si>
-  <si>
     <t>0935812532</t>
   </si>
   <si>
@@ -77,17 +42,600 @@
     <t>01666308481</t>
   </si>
   <si>
-    <t>đăng ký 3 bạn</t>
-  </si>
-  <si>
     <t>01282671995</t>
+  </si>
+  <si>
+    <t>THÁNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HỌ VÀ TÊN ĐÊM </t>
+  </si>
+  <si>
+    <t>TÊN</t>
+  </si>
+  <si>
+    <t>NĂM SINH</t>
+  </si>
+  <si>
+    <t>GIỚI TÍNH</t>
+  </si>
+  <si>
+    <t>ĐIỆN THOẠI</t>
+  </si>
+  <si>
+    <t>FACEBOOK</t>
+  </si>
+  <si>
+    <t>NGÀY THI</t>
+  </si>
+  <si>
+    <t>GIỜ THI</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>L Correct Answer</t>
+  </si>
+  <si>
+    <t>R Correct Answer</t>
+  </si>
+  <si>
+    <t>L Points</t>
+  </si>
+  <si>
+    <t>R Points</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>KHUYẾN MÃI</t>
+  </si>
+  <si>
+    <t>KÊNH</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part 4</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>Part 6</t>
+  </si>
+  <si>
+    <t>Part 7</t>
+  </si>
+  <si>
+    <t>Tháng 3</t>
+  </si>
+  <si>
+    <t>Phùng Nguyễn Thùy</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>01222500554</t>
+  </si>
+  <si>
+    <t>29/02/2016</t>
+  </si>
+  <si>
+    <t>8AM</t>
+  </si>
+  <si>
+    <t>Bạn Bè</t>
+  </si>
+  <si>
+    <t>Đoàn Văn</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>01216572795</t>
+  </si>
+  <si>
+    <t>22/03/2016</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Nam</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>01213631411</t>
+  </si>
+  <si>
+    <t>Tháng 7</t>
+  </si>
+  <si>
+    <t>Giao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phương </t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>01216525100</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>01676513568</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Thái Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Diệp</t>
+  </si>
+  <si>
+    <t>Tháng 8</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân</t>
+  </si>
+  <si>
+    <t>Quỳnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nữ </t>
+  </si>
+  <si>
+    <t>xuanquynh.nguyen.7</t>
+  </si>
+  <si>
+    <t>Tháng 9</t>
+  </si>
+  <si>
+    <t>Tem Hoàng</t>
+  </si>
+  <si>
+    <t>tem.hoang</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>01662246044</t>
+  </si>
+  <si>
+    <t>Thanh Tu</t>
+  </si>
+  <si>
+    <t>3PM</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Lê</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>0905028225</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Trần Thị</t>
+  </si>
+  <si>
+    <t>Ái</t>
+  </si>
+  <si>
+    <t>01263663202</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>9:30AM</t>
+  </si>
+  <si>
+    <t>Tháng 10</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng</t>
+  </si>
+  <si>
+    <t>Phú</t>
+  </si>
+  <si>
+    <t>0988509500</t>
+  </si>
+  <si>
+    <t>2h30 PM</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Như</t>
+  </si>
+  <si>
+    <t>Đài</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều</t>
+  </si>
+  <si>
+    <t>01645007993</t>
+  </si>
+  <si>
+    <t>Kiều</t>
+  </si>
+  <si>
+    <t>0905092415</t>
+  </si>
+  <si>
+    <t>Hồ Minh</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>01662711759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quách Thị Mỹ </t>
+  </si>
+  <si>
+    <t>0978437787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Văn </t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>01222406932</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Mộng</t>
+  </si>
+  <si>
+    <t>Chúc</t>
+  </si>
+  <si>
+    <t>Test online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Thị Thanh </t>
+  </si>
+  <si>
+    <t>Hoài</t>
+  </si>
+  <si>
+    <t>2h30PM</t>
+  </si>
+  <si>
+    <t>Tháng 11</t>
+  </si>
+  <si>
+    <t>KẾT QUẢ THI</t>
+  </si>
+  <si>
+    <t>ĐĂNG KÝ</t>
+  </si>
+  <si>
+    <t>Tháng 2</t>
+  </si>
+  <si>
+    <t>Mẫn</t>
+  </si>
+  <si>
+    <t>Grammar: Pre-Intermediate 3
+Speaking: Pre-Intermediate</t>
+  </si>
+  <si>
+    <t>Pre-Intermediate</t>
+  </si>
+  <si>
+    <t>Trung tâm</t>
+  </si>
+  <si>
+    <t>Trần Thị Ánh</t>
+  </si>
+  <si>
+    <t>Nhung</t>
+  </si>
+  <si>
+    <t>0974644135</t>
+  </si>
+  <si>
+    <t>Grammar: Upper Intermediate 3
+Speaking: Pre-Intermediate 3</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>Như</t>
+  </si>
+  <si>
+    <t>01662895808</t>
+  </si>
+  <si>
+    <t>Grammar: Pre-Intermediate 3
+Speaking: Pre-Intermediate 1</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đài</t>
+  </si>
+  <si>
+    <t>0961626868
+0934933981</t>
+  </si>
+  <si>
+    <t>24/02/2016</t>
+  </si>
+  <si>
+    <t>6PM</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>01673361315</t>
+  </si>
+  <si>
+    <t>Elementary 1</t>
+  </si>
+  <si>
+    <t>Đợi khóa 3PM</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>01202494042</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy</t>
+  </si>
+  <si>
+    <t>01226792192</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Giới Thiệu</t>
+  </si>
+  <si>
+    <t>Tập hợp nhóm mới 3-5-7</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>Võ Thị Hương</t>
+  </si>
+  <si>
+    <t>Lệ</t>
+  </si>
+  <si>
+    <t>le.vohuong</t>
+  </si>
+  <si>
+    <t>Học khóa tháng 10</t>
+  </si>
+  <si>
+    <t>Lê Hồng Thu</t>
+  </si>
+  <si>
+    <t>Uyên</t>
+  </si>
+  <si>
+    <t>0981330388</t>
+  </si>
+  <si>
+    <t>Bị tai nạn nên chưa đi học đc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồ Nhật</t>
+  </si>
+  <si>
+    <t>Hạ</t>
+  </si>
+  <si>
+    <t>01266520699</t>
+  </si>
+  <si>
+    <t>Mai gọi lại</t>
+  </si>
+  <si>
+    <t>Phạm Thị Bích</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>0944172688</t>
+  </si>
+  <si>
+    <t>Khoa buoi toi</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thanh</t>
+  </si>
+  <si>
+    <t>01675054111</t>
+  </si>
+  <si>
+    <t>5-7PM</t>
+  </si>
+  <si>
+    <t>No Queen</t>
+  </si>
+  <si>
+    <t>100004783039367</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Kiều</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>01214666715</t>
+  </si>
+  <si>
+    <t>5-7pm</t>
+  </si>
+  <si>
+    <t>Everlasting Ming Love</t>
+  </si>
+  <si>
+    <t>hoangmarrid.vo</t>
+  </si>
+  <si>
+    <t>01637323481</t>
+  </si>
+  <si>
+    <t>Trần Anh</t>
+  </si>
+  <si>
+    <t>100009303865631</t>
+  </si>
+  <si>
+    <t>0973882400</t>
+  </si>
+  <si>
+    <t>Học đi nc ngoài, KO phải SV</t>
+  </si>
+  <si>
+    <t>Đặng Thanh Huyền</t>
+  </si>
+  <si>
+    <t>co.heo.52</t>
+  </si>
+  <si>
+    <t>01227404585</t>
+  </si>
+  <si>
+    <t>Ngô Đình Triệu</t>
+  </si>
+  <si>
+    <t>Vỹ</t>
+  </si>
+  <si>
+    <t>01663831536</t>
+  </si>
+  <si>
+    <t>Trung Tâm</t>
+  </si>
+  <si>
+    <t>Lê Thị Thủy</t>
+  </si>
+  <si>
+    <t>Tiên</t>
+  </si>
+  <si>
+    <t>01202420403</t>
+  </si>
+  <si>
+    <t>Sáng, Tối</t>
+  </si>
+  <si>
+    <t>Nguyễn Trần Nguyên</t>
+  </si>
+  <si>
+    <t>01224563954</t>
+  </si>
+  <si>
+    <t>3,5,7 5h30-7h</t>
+  </si>
+  <si>
+    <t>Phạm Lê Anh</t>
+  </si>
+  <si>
+    <t>01214513779</t>
+  </si>
+  <si>
+    <t>14h30</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>0935350410</t>
+  </si>
+  <si>
+    <t>Ngô Phan Như</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>01236942682</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Ellementary 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,27 +644,137 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,28 +786,154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
+    <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,137 +1212,2125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="10"/>
+    <col min="21" max="21" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="23">
+        <v>5</v>
+      </c>
+      <c r="K3" s="23">
+        <v>16</v>
+      </c>
+      <c r="L3" s="23">
+        <v>9</v>
+      </c>
+      <c r="M3" s="23">
+        <v>4</v>
+      </c>
+      <c r="N3" s="23">
+        <v>26</v>
+      </c>
+      <c r="O3" s="23">
+        <v>4</v>
+      </c>
+      <c r="P3" s="23">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="23">
+        <f>SUM(J3:M3)</f>
+        <v>34</v>
+      </c>
+      <c r="R3" s="23">
+        <f>SUM(N3:P3)</f>
+        <v>53</v>
+      </c>
+      <c r="S3" s="23">
+        <v>150</v>
+      </c>
+      <c r="T3" s="23">
+        <v>270</v>
+      </c>
+      <c r="U3" s="24">
+        <f>S3+T3</f>
+        <v>420</v>
+      </c>
+      <c r="V3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5</v>
+      </c>
+      <c r="M4" s="10">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="23">
+        <f>SUM(J4:M4)</f>
+        <v>24</v>
+      </c>
+      <c r="R4" s="23">
+        <f>SUM(N4:P4)</f>
+        <v>32</v>
+      </c>
+      <c r="S4" s="23">
+        <v>95</v>
+      </c>
+      <c r="T4" s="23">
+        <v>100</v>
+      </c>
+      <c r="U4" s="24">
+        <f>S4+T4</f>
+        <v>195</v>
+      </c>
+      <c r="V4" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1993</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="26">
+        <v>42456</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10">
+        <v>9</v>
+      </c>
+      <c r="M5" s="10">
+        <v>11</v>
+      </c>
+      <c r="N5" s="10">
+        <v>18</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="23">
+        <f>SUM(J5:M5)</f>
+        <v>36</v>
+      </c>
+      <c r="R5" s="23">
+        <f>SUM(N5:P5)</f>
+        <v>41</v>
+      </c>
+      <c r="S5" s="23">
+        <v>165</v>
+      </c>
+      <c r="T5" s="23">
+        <v>160</v>
+      </c>
+      <c r="U5" s="24">
+        <f>S5+T5</f>
+        <v>325</v>
+      </c>
+      <c r="V5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1998</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="27">
+        <v>42583</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1995</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="27">
+        <v>42583</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1993</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="27">
+        <v>42585</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10">
+        <v>7</v>
+      </c>
+      <c r="K8" s="10">
+        <v>13</v>
+      </c>
+      <c r="L8" s="10">
+        <v>10</v>
+      </c>
+      <c r="M8" s="10">
+        <v>9</v>
+      </c>
+      <c r="N8" s="10">
+        <v>21</v>
+      </c>
+      <c r="O8" s="10">
+        <v>3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="23">
+        <f>SUM(J8:M8)</f>
+        <v>39</v>
+      </c>
+      <c r="R8" s="23">
+        <f>SUM(N8:P8)</f>
+        <v>35</v>
+      </c>
+      <c r="S8" s="10">
+        <v>180</v>
+      </c>
+      <c r="T8" s="10">
+        <v>120</v>
+      </c>
+      <c r="U8" s="24">
+        <f>S8+T8</f>
+        <v>300</v>
+      </c>
+      <c r="V8" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="10">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10">
+        <v>22</v>
+      </c>
+      <c r="L9" s="10">
+        <v>14</v>
+      </c>
+      <c r="M9" s="10">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10">
+        <v>30</v>
+      </c>
+      <c r="O9" s="10">
+        <v>8</v>
+      </c>
+      <c r="P9" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="23">
+        <f>SUM(J9:M9)</f>
+        <v>62</v>
+      </c>
+      <c r="R9" s="23">
+        <f>SUM(N9:P9)</f>
+        <v>66</v>
+      </c>
+      <c r="S9" s="10">
+        <v>325</v>
+      </c>
+      <c r="T9" s="10">
+        <v>310</v>
+      </c>
+      <c r="U9" s="24">
+        <f>S9+T9</f>
+        <v>635</v>
+      </c>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="27">
+        <v>42585</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>17</v>
+      </c>
+      <c r="L10" s="10">
+        <v>4</v>
+      </c>
+      <c r="M10" s="10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="10">
+        <v>19</v>
+      </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="23">
+        <f>SUM(J10:M10)</f>
+        <v>32</v>
+      </c>
+      <c r="R10" s="23">
+        <f>SUM(N10:P10)</f>
+        <v>36</v>
+      </c>
+      <c r="S10" s="10">
+        <v>140</v>
+      </c>
+      <c r="T10" s="10">
+        <v>125</v>
+      </c>
+      <c r="U10" s="24">
+        <f>S10+T10</f>
+        <v>265</v>
+      </c>
+      <c r="V10" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="10">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>29</v>
+      </c>
+      <c r="L11" s="10">
+        <v>14</v>
+      </c>
+      <c r="M11" s="10">
+        <v>13</v>
+      </c>
+      <c r="N11" s="10">
+        <v>31</v>
+      </c>
+      <c r="O11" s="10">
+        <v>7</v>
+      </c>
+      <c r="P11" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="23">
+        <f>SUM(J11:M11)</f>
+        <v>66</v>
+      </c>
+      <c r="R11" s="23">
+        <f>SUM(N11:P11)</f>
+        <v>66</v>
+      </c>
+      <c r="S11" s="10">
+        <v>350</v>
+      </c>
+      <c r="T11" s="10">
+        <v>310</v>
+      </c>
+      <c r="U11" s="24">
+        <f>S11+T11</f>
+        <v>660</v>
+      </c>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1995</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="29">
+        <v>530</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="27">
+        <v>42639</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="10">
+        <v>8</v>
+      </c>
+      <c r="K15" s="10">
+        <v>19</v>
+      </c>
+      <c r="L15" s="10">
+        <v>15</v>
+      </c>
+      <c r="M15" s="10">
+        <v>15</v>
+      </c>
+      <c r="N15" s="10">
+        <v>35</v>
+      </c>
+      <c r="O15" s="10">
+        <v>8</v>
+      </c>
+      <c r="P15" s="10">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="23">
+        <f>SUM(J15:M15)</f>
+        <v>57</v>
+      </c>
+      <c r="R15" s="23">
+        <f>SUM(N15:P15)</f>
+        <v>82</v>
+      </c>
+      <c r="S15" s="10">
+        <v>295</v>
+      </c>
+      <c r="T15" s="10">
+        <v>405</v>
+      </c>
+      <c r="U15" s="24">
+        <f>S15+T15</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1996</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1995</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30">
+        <v>42649</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3</v>
+      </c>
+      <c r="K18" s="10">
+        <v>9</v>
+      </c>
+      <c r="L18" s="10">
+        <v>14</v>
+      </c>
+      <c r="M18" s="10">
+        <v>9</v>
+      </c>
+      <c r="N18" s="10">
+        <v>15</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="23">
+        <f>SUM(J18:M18)</f>
+        <v>35</v>
+      </c>
+      <c r="R18" s="23">
+        <f>SUM(N18:P18)</f>
+        <v>22</v>
+      </c>
+      <c r="S18" s="10">
+        <v>160</v>
+      </c>
+      <c r="T18" s="10">
+        <v>40</v>
+      </c>
+      <c r="U18" s="24">
+        <f>S18+T18</f>
+        <v>200</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="32"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1993</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="10">
+        <v>4</v>
+      </c>
+      <c r="K19" s="10">
+        <v>14</v>
+      </c>
+      <c r="L19" s="10">
+        <v>8</v>
+      </c>
+      <c r="M19" s="10">
+        <v>9</v>
+      </c>
+      <c r="N19" s="10">
+        <v>23</v>
+      </c>
+      <c r="O19" s="10">
+        <v>5</v>
+      </c>
+      <c r="P19" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>SUM(J19:M19)</f>
+        <v>35</v>
+      </c>
+      <c r="R19" s="10">
+        <f>SUM(N19:P19)</f>
+        <v>35</v>
+      </c>
+      <c r="S19" s="10">
+        <v>160</v>
+      </c>
+      <c r="T19" s="10">
+        <v>120</v>
+      </c>
+      <c r="U19" s="29">
+        <f>S19+T19</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1993</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="10">
+        <v>7</v>
+      </c>
+      <c r="K20" s="10">
+        <v>16</v>
+      </c>
+      <c r="L20" s="10">
+        <v>9</v>
+      </c>
+      <c r="M20" s="10">
+        <v>13</v>
+      </c>
+      <c r="N20" s="10">
+        <v>25</v>
+      </c>
+      <c r="O20" s="10">
+        <v>2</v>
+      </c>
+      <c r="P20" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="10">
+        <f>SUM(J20:M20)</f>
+        <v>45</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" ref="R20:R27" si="0">SUM(N20:P20)</f>
+        <v>30</v>
+      </c>
+      <c r="S20" s="10">
+        <v>215</v>
+      </c>
+      <c r="T20" s="10">
+        <v>90</v>
+      </c>
+      <c r="U20" s="29">
+        <f t="shared" ref="U20:U26" si="1">S20+T20</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="10">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="K21" s="10">
+        <v>8</v>
+      </c>
+      <c r="L21" s="10">
+        <v>11</v>
+      </c>
+      <c r="M21" s="10">
+        <v>7</v>
+      </c>
+      <c r="N21" s="10">
+        <v>17</v>
+      </c>
+      <c r="O21" s="10">
+        <v>2</v>
+      </c>
+      <c r="P21" s="10">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="10">
+        <f>SUM(J21:M21)</f>
+        <v>26</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S21" s="10">
+        <v>110</v>
+      </c>
+      <c r="T21" s="10">
+        <v>110</v>
+      </c>
+      <c r="U21" s="29">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1992</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2</v>
+      </c>
+      <c r="K22" s="10">
+        <v>8</v>
+      </c>
+      <c r="L22" s="10">
+        <v>9</v>
+      </c>
+      <c r="M22" s="10">
+        <v>12</v>
+      </c>
+      <c r="N22" s="10">
+        <v>18</v>
+      </c>
+      <c r="O22" s="10">
+        <v>6</v>
+      </c>
+      <c r="P22" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" ref="Q22:Q27" si="2">SUM(J22:M22)</f>
+        <v>31</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="S22" s="10">
+        <v>135</v>
+      </c>
+      <c r="T22" s="10">
+        <v>95</v>
+      </c>
+      <c r="U22" s="29">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1993</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3</v>
+      </c>
+      <c r="K23" s="10">
+        <v>9</v>
+      </c>
+      <c r="L23" s="10">
+        <v>11</v>
+      </c>
+      <c r="M23" s="10">
+        <v>11</v>
+      </c>
+      <c r="N23" s="10">
+        <v>12</v>
+      </c>
+      <c r="O23" s="10">
+        <v>2</v>
+      </c>
+      <c r="P23" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S23" s="10">
+        <v>150</v>
+      </c>
+      <c r="T23" s="10">
+        <v>85</v>
+      </c>
+      <c r="U23" s="29">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="10">
+        <v>7</v>
+      </c>
+      <c r="K24" s="10">
+        <v>17</v>
+      </c>
+      <c r="L24" s="10">
+        <v>9</v>
+      </c>
+      <c r="M24" s="10">
+        <v>9</v>
+      </c>
+      <c r="N24" s="10">
+        <v>23</v>
+      </c>
+      <c r="O24" s="10">
+        <v>3</v>
+      </c>
+      <c r="P24" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="S24" s="10">
+        <v>195</v>
+      </c>
+      <c r="T24" s="10">
+        <v>120</v>
+      </c>
+      <c r="U24" s="29">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="27">
+        <v>42439</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>12</v>
+      </c>
+      <c r="L25" s="10">
+        <v>10</v>
+      </c>
+      <c r="M25" s="10">
+        <v>8</v>
+      </c>
+      <c r="N25" s="10">
+        <v>9</v>
+      </c>
+      <c r="O25" s="10">
+        <v>5</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S25" s="10">
+        <v>140</v>
+      </c>
+      <c r="T25" s="10">
+        <v>45</v>
+      </c>
+      <c r="U25" s="29">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="27">
+        <v>42653</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="10">
+        <v>6</v>
+      </c>
+      <c r="K26" s="10">
+        <v>13</v>
+      </c>
+      <c r="L26" s="10">
+        <v>8</v>
+      </c>
+      <c r="M26" s="10">
+        <v>11</v>
+      </c>
+      <c r="N26" s="10">
+        <v>25</v>
+      </c>
+      <c r="O26" s="10">
+        <v>6</v>
+      </c>
+      <c r="P26" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="S26" s="10">
+        <v>175</v>
+      </c>
+      <c r="T26" s="10">
+        <v>265</v>
+      </c>
+      <c r="U26" s="29">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1994</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="27">
+        <v>42714</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="10">
+        <v>5</v>
+      </c>
+      <c r="K27" s="10">
+        <v>17</v>
+      </c>
+      <c r="L27" s="10">
+        <v>14</v>
+      </c>
+      <c r="M27" s="10">
+        <v>17</v>
+      </c>
+      <c r="N27" s="10">
+        <v>24</v>
+      </c>
+      <c r="O27" s="10">
+        <v>2</v>
+      </c>
+      <c r="P27" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S27" s="10">
+        <v>270</v>
+      </c>
+      <c r="T27" s="10">
+        <v>175</v>
+      </c>
+      <c r="U27" s="29">
+        <f>S27+T27</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="W28" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="37" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="52"/>
+    </row>
+    <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="52"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="53"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="C9" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="C10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="45"/>
+      <c r="M12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1996</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1995</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="50">
+        <v>39146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1996</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="38">
+        <v>1995</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1993</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="49">
+        <v>42648</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="38">
+        <v>1993</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="49">
+        <v>42648</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="38">
+        <v>1993</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="49">
+        <v>42648</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>Ellementary 2</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -813,15 +816,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -850,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -888,9 +879,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,6 +909,21 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1218,30 +1221,30 @@
       <pane xSplit="3" ySplit="2" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="10"/>
-    <col min="21" max="21" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="7"/>
+    <col min="21" max="21" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1272,30 +1275,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="49" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1312,1304 +1315,1310 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>1994</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <v>5</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="19">
         <v>16</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="19">
         <v>9</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>4</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="19">
         <v>26</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="19">
         <v>4</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="19">
         <v>23</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="19">
         <f>SUM(J3:M3)</f>
         <v>34</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="19">
         <f>SUM(N3:P3)</f>
         <v>53</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="19">
         <v>150</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="19">
         <v>270</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="20">
         <f>S3+T3</f>
         <v>420</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="21">
         <v>0.1</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>12</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>5</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>17</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="7">
         <v>2</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="7">
         <v>13</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="19">
         <f>SUM(J4:M4)</f>
         <v>24</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="19">
         <f>SUM(N4:P4)</f>
         <v>32</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="19">
         <v>95</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="19">
         <v>100</v>
       </c>
-      <c r="U4" s="24">
+      <c r="U4" s="20">
         <f>S4+T4</f>
         <v>195</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>1993</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26">
+      <c r="G5" s="16"/>
+      <c r="H5" s="22">
         <v>42456</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>12</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>9</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="7">
         <v>18</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="7">
         <v>2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="7">
         <v>21</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="19">
         <f>SUM(J5:M5)</f>
         <v>36</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="19">
         <f>SUM(N5:P5)</f>
         <v>41</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="19">
         <v>165</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="19">
         <v>160</v>
       </c>
-      <c r="U5" s="24">
+      <c r="U5" s="20">
         <f>S5+T5</f>
         <v>325</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="21">
         <v>0.1</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1998</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="27">
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="23">
         <v>42583</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>1995</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="23">
         <v>42583</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>1993</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="23">
         <v>42585</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>7</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <v>13</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>10</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <v>9</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="7">
         <v>21</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="7">
         <v>3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="7">
         <v>11</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="19">
         <f>SUM(J8:M8)</f>
         <v>39</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="19">
         <f>SUM(N8:P8)</f>
         <v>35</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="7">
         <v>180</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="7">
         <v>120</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="20">
         <f>S8+T8</f>
         <v>300</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="21">
         <v>0.15</v>
       </c>
-      <c r="W8" s="8" t="s">
+      <c r="W8" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="10">
+      <c r="A9" s="50"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="7">
         <v>8</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <v>22</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <v>14</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="7">
         <v>18</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="7">
         <v>30</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="7">
         <v>8</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="7">
         <v>28</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="19">
         <f>SUM(J9:M9)</f>
         <v>62</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="19">
         <f>SUM(N9:P9)</f>
         <v>66</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="7">
         <v>325</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="7">
         <v>310</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="20">
         <f>S9+T9</f>
         <v>635</v>
       </c>
-      <c r="V9" s="25"/>
+      <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>1994</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="23">
         <v>42585</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <v>17</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="7">
         <v>4</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="7">
         <v>10</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="7">
         <v>19</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="7">
         <v>1</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="7">
         <v>16</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="19">
         <f>SUM(J10:M10)</f>
         <v>32</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="19">
         <f>SUM(N10:P10)</f>
         <v>36</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="7">
         <v>140</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="7">
         <v>125</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="20">
         <f>S10+T10</f>
         <v>265</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="21">
         <v>0.15</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="W10" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="10">
+      <c r="A11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="7">
         <v>10</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <v>29</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <v>14</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="7">
         <v>13</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="7">
         <v>31</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="7">
         <v>7</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="7">
         <v>28</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="19">
         <f>SUM(J11:M11)</f>
         <v>66</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="19">
         <f>SUM(N11:P11)</f>
         <v>66</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="7">
         <v>350</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="7">
         <v>310</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="20">
         <f>S11+T11</f>
         <v>660</v>
       </c>
-      <c r="V11" s="25"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>1995</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="25">
         <v>530</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="21">
         <v>0.1</v>
       </c>
-      <c r="W14" s="8" t="s">
+      <c r="W14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="23">
         <v>42639</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="7">
         <v>8</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <v>19</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="7">
         <v>15</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="7">
         <v>15</v>
       </c>
-      <c r="N15" s="10">
-        <v>35</v>
-      </c>
-      <c r="O15" s="10">
+      <c r="N15" s="7">
+        <v>35</v>
+      </c>
+      <c r="O15" s="7">
         <v>8</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="7">
         <v>39</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="19">
         <f>SUM(J15:M15)</f>
         <v>57</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="19">
         <f>SUM(N15:P15)</f>
         <v>82</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="7">
         <v>295</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="7">
         <v>405</v>
       </c>
-      <c r="U15" s="24">
+      <c r="U15" s="20">
         <f>S15+T15</f>
         <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>1994</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>1996</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W17" s="8" t="s">
+      <c r="W17" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>1995</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <v>42649</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <v>3</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <v>9</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="7">
         <v>14</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="7">
         <v>9</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="7">
         <v>15</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="7">
         <v>1</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="7">
         <v>6</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="19">
         <f>SUM(J18:M18)</f>
         <v>35</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="19">
         <f>SUM(N18:P18)</f>
         <v>22</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="7">
         <v>160</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="7">
         <v>40</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="20">
         <f>S18+T18</f>
         <v>200</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="28"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>1993</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="23">
         <v>42439</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="7">
         <v>4</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="7">
         <v>14</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="7">
         <v>8</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="7">
         <v>9</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="7">
         <v>23</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="7">
         <v>5</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="7">
         <v>7</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="7">
         <f>SUM(J19:M19)</f>
         <v>35</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="7">
         <f>SUM(N19:P19)</f>
         <v>35</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="7">
         <v>160</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="7">
         <v>120</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="25">
         <f>S19+T19</f>
         <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>1993</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="23">
         <v>42439</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="7">
         <v>7</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="7">
         <v>16</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="7">
         <v>9</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="7">
         <v>13</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="7">
         <v>25</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="7">
         <v>2</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="7">
         <v>3</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="7">
         <f>SUM(J20:M20)</f>
         <v>45</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="7">
         <f t="shared" ref="R20:R27" si="0">SUM(N20:P20)</f>
         <v>30</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="7">
         <v>215</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="7">
         <v>90</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="25">
         <f t="shared" ref="U20:U26" si="1">S20+T20</f>
         <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>1994</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="23">
         <v>42439</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="7">
         <v>8</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="7">
         <v>11</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="7">
         <v>7</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="7">
         <v>17</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="7">
         <v>2</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="7">
         <v>14</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="7">
         <f>SUM(J21:M21)</f>
         <v>26</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="7">
         <v>110</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="7">
         <v>110</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="25">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>1992</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="23">
         <v>42439</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="7">
         <v>2</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="7">
         <v>8</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>9</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="7">
         <v>12</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="7">
         <v>18</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="7">
         <v>6</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="7">
         <v>7</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="7">
         <f t="shared" ref="Q22:Q27" si="2">SUM(J22:M22)</f>
         <v>31</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="7">
         <v>135</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="7">
         <v>95</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="25">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>1993</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="23">
         <v>42439</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="7">
         <v>3</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="7">
         <v>9</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="7">
         <v>11</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="7">
         <v>11</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="7">
         <v>12</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="7">
         <v>2</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="7">
         <v>15</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="7">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="7">
         <v>150</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="7">
         <v>85</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="25">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>1994</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="23">
         <v>42439</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="7">
         <v>7</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="7">
         <v>17</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7">
         <v>9</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="7">
         <v>9</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="7">
         <v>23</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="7">
         <v>3</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="7">
         <v>9</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="7">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="7">
         <v>195</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="7">
         <v>120</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="25">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>1994</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="23">
         <v>42439</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="7">
         <v>2</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="7">
         <v>12</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="7">
         <v>10</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="7">
         <v>8</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="7">
         <v>9</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="7">
         <v>5</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="7">
         <v>0</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="7">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="7">
         <v>140</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="7">
         <v>45</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="25">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="27">
+      <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="23">
         <v>42653</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="7">
         <v>6</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="7">
         <v>13</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="7">
         <v>8</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="7">
         <v>11</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="7">
         <v>25</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="7">
         <v>6</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="7">
         <v>28</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="7">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="7">
         <v>175</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="7">
         <v>265</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="25">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
+      <c r="X26" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>1994</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="33" t="s">
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="23">
         <v>42714</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="7">
         <v>5</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="7">
         <v>17</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="7">
         <v>14</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="7">
         <v>17</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="7">
         <v>24</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="7">
         <v>2</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="7">
         <v>18</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="7">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="7">
         <v>270</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="7">
         <v>175</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="25">
         <f>S27+T27</f>
         <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="33" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="X28" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="33" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2643,21 +2652,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.28515625" style="37" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="37" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="9.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2673,34 +2682,34 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="30" t="s">
         <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -2708,619 +2717,619 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="38">
         <v>0.15</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="39" t="s">
+      <c r="F3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="38">
         <v>0.15</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="52"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="38">
         <v>0.15</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="52"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="41" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="43">
         <v>0.1</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="53"/>
+      <c r="C9" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="53"/>
+      <c r="C10" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="45" t="s">
+      <c r="F10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="45" t="s">
+      <c r="F11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="40" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="45"/>
-      <c r="M12" s="37" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="40"/>
+      <c r="M12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="39" t="s">
+      <c r="F14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="39" t="s">
+      <c r="F15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="32" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="33">
         <v>1996</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="32" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="33">
         <v>1995</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="38">
         <v>0.1</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="45">
         <v>39146</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="33">
         <v>1996</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="39" t="s">
+      <c r="F22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="38">
         <v>0.1</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="32" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="33">
         <v>1995</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="38">
         <v>0.1</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="32" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="33">
         <v>1993</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="F24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="44">
         <v>42648</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="33" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="33">
         <v>1993</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="39" t="s">
+      <c r="F25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="44">
         <v>42648</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="33" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="33">
         <v>1993</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="44">
         <v>42648</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="33" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="203">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Tháng 12</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Bảo</t>
+  </si>
+  <si>
+    <t>0905012112</t>
   </si>
 </sst>
 </file>
@@ -802,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,7 +881,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,6 +932,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1215,23 +1232,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1:X1048576"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="54" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -1241,7 +1258,7 @@
     <col min="19" max="20" width="9.140625" style="7"/>
     <col min="21" max="21" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="12.42578125" style="5" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="5"/>
@@ -1275,30 +1292,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="49" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="48" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1336,14 +1353,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1358,7 +1375,7 @@
       <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="54" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="16"/>
@@ -1415,7 +1432,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1425,7 +1442,7 @@
       <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="54" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="16"/>
@@ -1479,7 +1496,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1492,7 +1509,7 @@
       <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="54" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="16"/>
@@ -1549,7 +1566,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1572,7 +1589,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1585,7 +1602,7 @@
       <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="54" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="23">
@@ -1596,7 +1613,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1609,7 +1626,7 @@
       <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="54" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="23">
@@ -1665,7 +1682,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="49"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -1710,7 +1727,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -1864,7 +1881,7 @@
       <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="54" t="s">
         <v>70</v>
       </c>
       <c r="U14" s="25">
@@ -1940,7 +1957,7 @@
       <c r="E16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="54" t="s">
         <v>75</v>
       </c>
       <c r="W16" s="5" t="s">
@@ -1960,7 +1977,7 @@
       <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="54" t="s">
         <v>79</v>
       </c>
       <c r="W17" s="5" t="s">
@@ -1980,7 +1997,7 @@
       <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="26">
@@ -2049,7 +2066,7 @@
       <c r="E19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="54" t="s">
         <v>86</v>
       </c>
       <c r="H19" s="23">
@@ -2111,7 +2128,7 @@
       <c r="E20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="54" t="s">
         <v>86</v>
       </c>
       <c r="H20" s="23">
@@ -2173,7 +2190,7 @@
       <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="54" t="s">
         <v>91</v>
       </c>
       <c r="H21" s="23">
@@ -2235,7 +2252,7 @@
       <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="54" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="23">
@@ -2297,7 +2314,7 @@
       <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="54" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="23">
@@ -2359,7 +2376,7 @@
       <c r="E24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="54" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="23">
@@ -2421,7 +2438,7 @@
       <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="23">
@@ -2542,7 +2559,7 @@
       <c r="E27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="55" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="23">
@@ -2597,7 +2614,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="55" t="s">
         <v>1</v>
       </c>
       <c r="W28" s="5" t="s">
@@ -2613,13 +2630,41 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="55" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1994</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2652,21 +2697,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.28515625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="31" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2682,34 +2727,34 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -2717,619 +2762,619 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="37">
         <v>0.15</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="37">
         <v>0.15</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="47"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="36" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="37">
         <v>0.15</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="42">
         <v>0.1</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="52"/>
+      <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="31" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="52"/>
+      <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="40" t="s">
+      <c r="F10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="40" t="s">
+      <c r="F11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="40"/>
-      <c r="M12" s="32" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="39"/>
+      <c r="M12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="31" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="31" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <v>1996</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="31" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="32">
         <v>1995</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="37">
         <v>0.1</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="44">
         <v>39146</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <v>1996</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="34" t="s">
+      <c r="F22" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>0.1</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="32">
         <v>1995</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="37">
         <v>0.1</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="32" t="s">
+      <c r="O23" s="31" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="32">
         <v>1993</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="34" t="s">
+      <c r="F24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="43">
         <v>42648</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="33" t="s">
+      <c r="N24" s="32" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <v>1993</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="34" t="s">
+      <c r="F25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <v>42648</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="N25" s="32" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <v>1993</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="34" t="s">
+      <c r="F26" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="43">
         <v>42648</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N26" s="32" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TOEIC" sheetId="7" r:id="rId1"/>
-    <sheet name="Cambridge" sheetId="8" r:id="rId2"/>
+    <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
+    <sheet name="2016-Cambridge" sheetId="8" r:id="rId2"/>
+    <sheet name="2017-TOEIC" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="207">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -638,6 +639,18 @@
   </si>
   <si>
     <t>0905012112</t>
+  </si>
+  <si>
+    <t>Tháng 01</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diệu</t>
+  </si>
+  <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t>0905862521</t>
   </si>
 </sst>
 </file>
@@ -811,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,6 +931,15 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,13 +955,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,13 +1248,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y32"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1267,7 @@
     <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="49" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -1292,30 +1311,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="48" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="51" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1353,14 +1372,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1375,7 +1394,7 @@
       <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="49" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="16"/>
@@ -1432,7 +1451,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1442,7 +1461,7 @@
       <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="16"/>
@@ -1496,7 +1515,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1509,7 +1528,7 @@
       <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="49" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="16"/>
@@ -1566,7 +1585,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1589,7 +1608,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1602,7 +1621,7 @@
       <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="49" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="23">
@@ -1613,7 +1632,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1626,7 +1645,7 @@
       <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="49" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="23">
@@ -1682,7 +1701,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="52"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -1727,7 +1746,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -1881,7 +1900,7 @@
       <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="49" t="s">
         <v>70</v>
       </c>
       <c r="U14" s="25">
@@ -1957,7 +1976,7 @@
       <c r="E16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="49" t="s">
         <v>75</v>
       </c>
       <c r="W16" s="5" t="s">
@@ -1977,7 +1996,7 @@
       <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="49" t="s">
         <v>79</v>
       </c>
       <c r="W17" s="5" t="s">
@@ -1997,7 +2016,7 @@
       <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="49" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="26">
@@ -2066,7 +2085,7 @@
       <c r="E19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="49" t="s">
         <v>86</v>
       </c>
       <c r="H19" s="23">
@@ -2128,7 +2147,7 @@
       <c r="E20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="49" t="s">
         <v>86</v>
       </c>
       <c r="H20" s="23">
@@ -2190,7 +2209,7 @@
       <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="49" t="s">
         <v>91</v>
       </c>
       <c r="H21" s="23">
@@ -2252,7 +2271,7 @@
       <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="49" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="23">
@@ -2314,7 +2333,7 @@
       <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="49" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="23">
@@ -2376,7 +2395,7 @@
       <c r="E24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="49" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="23">
@@ -2438,7 +2457,7 @@
       <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="49" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="23">
@@ -2559,7 +2578,7 @@
       <c r="E27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="50" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="23">
@@ -2614,7 +2633,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="50" t="s">
         <v>1</v>
       </c>
       <c r="W28" s="5" t="s">
@@ -2630,7 +2649,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="50" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2657,7 +2676,7 @@
       <c r="E32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="48" t="s">
         <v>202</v>
       </c>
       <c r="W32" s="5" t="s">
@@ -2666,6 +2685,9 @@
       <c r="X32" s="7" t="s">
         <v>199</v>
       </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2686,6 +2708,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,7 +2787,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -2787,7 +2812,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -2816,7 +2841,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -2845,7 +2870,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -2883,7 +2908,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="55" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2909,7 +2934,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -2933,7 +2958,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -2957,7 +2982,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -2972,7 +2997,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -2987,7 +3012,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3011,7 +3036,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3034,7 +3059,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3055,7 +3080,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="55" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3078,7 +3103,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3387,4 +3412,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="7"/>
+    <col min="21" max="21" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+    </row>
+    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="49"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="56">
+        <v>39120</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success 2016\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
     <sheet name="2016-Cambridge" sheetId="8" r:id="rId2"/>
     <sheet name="2017-TOEIC" sheetId="9" r:id="rId3"/>
+    <sheet name="2017-Cambridge" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="264">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -651,6 +653,177 @@
   </si>
   <si>
     <t>0905862521</t>
+  </si>
+  <si>
+    <t>Tháng 02</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>Nhi</t>
+  </si>
+  <si>
+    <t>01664843835</t>
+  </si>
+  <si>
+    <t>Facebook-quảng cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Diễm </t>
+  </si>
+  <si>
+    <t>Hiền</t>
+  </si>
+  <si>
+    <t>25/10/1995</t>
+  </si>
+  <si>
+    <t>01234245255</t>
+  </si>
+  <si>
+    <t>Toeic 300-500</t>
+  </si>
+  <si>
+    <t>Giảm 10% học phí</t>
+  </si>
+  <si>
+    <t>Hồ Hiệp Thủy</t>
+  </si>
+  <si>
+    <t>0964464605</t>
+  </si>
+  <si>
+    <t>Phạm Văn</t>
+  </si>
+  <si>
+    <t>Cường</t>
+  </si>
+  <si>
+    <t>0986525172</t>
+  </si>
+  <si>
+    <t>Toeic 400-500</t>
+  </si>
+  <si>
+    <t>18/2/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Duy Nhật </t>
+  </si>
+  <si>
+    <t>0903510606</t>
+  </si>
+  <si>
+    <t>Toeic 500-700</t>
+  </si>
+  <si>
+    <t>Toeic 600-700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Thị Ngọc </t>
+  </si>
+  <si>
+    <t>18/6/1995</t>
+  </si>
+  <si>
+    <t>17h30-19h</t>
+  </si>
+  <si>
+    <t>22/2/2017</t>
+  </si>
+  <si>
+    <t>24/12/1997</t>
+  </si>
+  <si>
+    <t>17/2/2017</t>
+  </si>
+  <si>
+    <t>17h30</t>
+  </si>
+  <si>
+    <t>Elementary 2</t>
+  </si>
+  <si>
+    <t>Giảm 10%</t>
+  </si>
+  <si>
+    <t>Trần Phương</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>0931771248</t>
+  </si>
+  <si>
+    <t>Bạn bè giới thiệu</t>
+  </si>
+  <si>
+    <t>Đặng Như</t>
+  </si>
+  <si>
+    <t>01225511845</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>Chủ nhật</t>
+  </si>
+  <si>
+    <t>7h30-9h</t>
+  </si>
+  <si>
+    <t>Chị Chúc</t>
+  </si>
+  <si>
+    <t>Kết thúc: 31/3</t>
+  </si>
+  <si>
+    <t>9h30-11h</t>
+  </si>
+  <si>
+    <t>Anh Đức</t>
+  </si>
+  <si>
+    <t>13h30-15h</t>
+  </si>
+  <si>
+    <t>15h30-17h</t>
+  </si>
+  <si>
+    <t>Anh Thức</t>
+  </si>
+  <si>
+    <t>Toeic 300-500 - K3</t>
+  </si>
+  <si>
+    <t>6/3 - 4/6</t>
+  </si>
+  <si>
+    <t>7/3 - 4-6</t>
+  </si>
+  <si>
+    <t>19h30-21h</t>
+  </si>
+  <si>
+    <t>Toeic 300-500 - K2</t>
   </si>
 </sst>
 </file>
@@ -824,7 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,6 +1113,9 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,9 +1131,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1311,30 +1496,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="51" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="52" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1372,14 +1557,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1451,7 +1636,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1515,7 +1700,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1585,7 +1770,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1608,7 +1793,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1632,7 +1817,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1701,7 +1886,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -1746,7 +1931,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2687,7 +2872,7 @@
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="56"/>
+      <c r="D34" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2714,7 +2899,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
@@ -2787,7 +2972,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -2812,7 +2997,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -2841,7 +3026,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -2870,7 +3055,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -2908,7 +3093,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2934,7 +3119,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -2958,7 +3143,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -2982,7 +3167,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -2997,7 +3182,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3012,7 +3197,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3036,7 +3221,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3059,7 +3244,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3080,7 +3265,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3103,7 +3288,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3416,13 +3601,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3434,9 +3619,11 @@
     <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="49" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11" style="7" customWidth="1"/>
+    <col min="12" max="16" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="7"/>
@@ -3448,7 +3635,7 @@
     <col min="26" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3476,30 +3663,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="51" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="52" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -3515,7 +3702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
@@ -3537,13 +3724,13 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-    </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+    </row>
+    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>203</v>
       </c>
@@ -3571,7 +3758,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>204</v>
@@ -3579,7 +3766,7 @@
       <c r="C4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="51">
         <v>39120</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -3607,6 +3794,198 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="5"/>
     </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="5"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="60">
+        <v>0.375</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="7">
+        <v>14</v>
+      </c>
+      <c r="S7" s="7">
+        <f>L7+M7+N7+O7</f>
+        <v>39</v>
+      </c>
+      <c r="T7" s="7">
+        <f>P7+Q7+R7</f>
+        <v>35</v>
+      </c>
+      <c r="U7" s="7">
+        <v>180</v>
+      </c>
+      <c r="V7" s="7">
+        <v>120</v>
+      </c>
+      <c r="W7" s="7">
+        <f>U7+V7</f>
+        <v>300</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="5"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="60">
+        <v>0.625</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="5"/>
+      <c r="Z9" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="U1:U2"/>
@@ -3620,4 +3999,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="31" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="61">
+        <v>33299</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="61">
+        <v>33545</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success 2016\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="265">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>Toeic 300-500 - K2</t>
+  </si>
+  <si>
+    <t>MỤC TIÊU ĐẦU RA</t>
   </si>
 </sst>
 </file>
@@ -1116,6 +1119,18 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,18 +1146,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1496,30 +1499,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="52" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="58" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1557,14 +1560,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1636,7 +1639,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1700,7 +1703,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1770,7 +1773,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1793,7 +1796,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1817,7 +1820,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1886,7 +1889,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -1931,7 +1934,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2972,7 +2975,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -2997,7 +3000,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -3026,7 +3029,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -3055,7 +3058,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -3093,7 +3096,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="62" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3119,7 +3122,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -3143,7 +3146,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -3167,7 +3170,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="62"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -3182,7 +3185,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="62"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3197,7 +3200,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3221,7 +3224,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3244,7 +3247,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3265,7 +3268,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3288,7 +3291,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3603,11 +3606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3622,7 @@
     <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="49" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="11" style="7" customWidth="1"/>
@@ -3655,38 +3658,38 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="52" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="58" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -3724,11 +3727,11 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3798,10 +3801,10 @@
       <c r="A5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="53" t="s">
         <v>213</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -3810,10 +3813,10 @@
       <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="54" t="s">
         <v>216</v>
       </c>
       <c r="H5" s="50"/>
@@ -3853,20 +3856,20 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>221</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="54" t="s">
         <v>216</v>
       </c>
       <c r="H7" s="49" t="s">
@@ -3876,7 +3879,7 @@
       <c r="J7" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="55">
         <v>0.375</v>
       </c>
       <c r="L7" s="7">
@@ -3978,7 +3981,7 @@
       <c r="J9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="55">
         <v>0.625</v>
       </c>
       <c r="V9" s="7"/>
@@ -4008,7 +4011,7 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4085,7 +4088,7 @@
       <c r="A2" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="52" t="s">
         <v>208</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -4126,13 +4129,13 @@
       <c r="C3" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="56">
         <v>33299</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="57" t="s">
         <v>240</v>
       </c>
       <c r="M3" s="31" t="s">
@@ -4146,13 +4149,13 @@
       <c r="C4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="56">
         <v>33545</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="57" t="s">
         <v>243</v>
       </c>
       <c r="M4" s="31" t="s">

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -17,6 +17,7 @@
     <sheet name="2017-TOEIC" sheetId="9" r:id="rId3"/>
     <sheet name="2017-Cambridge" sheetId="11" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="301">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -827,6 +828,114 @@
   </si>
   <si>
     <t>MỤC TIÊU ĐẦU RA</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>HỌ VÀ TÊN</t>
+  </si>
+  <si>
+    <t>KHÓA HỌC</t>
+  </si>
+  <si>
+    <t>SỐ ĐT</t>
+  </si>
+  <si>
+    <t>THI THỬ</t>
+  </si>
+  <si>
+    <t>HỌC</t>
+  </si>
+  <si>
+    <t>Lê Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Hương</t>
+  </si>
+  <si>
+    <t>Quách Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Hồ Minh Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Chương</t>
+  </si>
+  <si>
+    <t>Nguyễn Tài</t>
+  </si>
+  <si>
+    <t>Trần Thị Ái</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Lập</t>
+  </si>
+  <si>
+    <t>Hồ Văn Nghĩa</t>
+  </si>
+  <si>
+    <t>ĐTVT K36</t>
+  </si>
+  <si>
+    <t>ĐTVT K37</t>
+  </si>
+  <si>
+    <t>ĐTVT K38</t>
+  </si>
+  <si>
+    <t>ĐTVT K39A</t>
+  </si>
+  <si>
+    <t>ĐTVT K39B</t>
+  </si>
+  <si>
+    <t>ĐTVT K40B</t>
+  </si>
+  <si>
+    <t>090.5634124</t>
+  </si>
+  <si>
+    <t>0167.3196168</t>
+  </si>
+  <si>
+    <t>097.8437787</t>
+  </si>
+  <si>
+    <t>0166.2711759</t>
+  </si>
+  <si>
+    <t>0165.6934247</t>
+  </si>
+  <si>
+    <t>0165.9151906</t>
+  </si>
+  <si>
+    <t>0126.3663202</t>
+  </si>
+  <si>
+    <t>090.5789423</t>
+  </si>
+  <si>
+    <t>090.2440603</t>
+  </si>
+  <si>
+    <t>0169.5627311</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Thứ 2 bận, 4&amp;6 OK</t>
+  </si>
+  <si>
+    <t>Trừ 2,4,6</t>
+  </si>
+  <si>
+    <t>Báo lại sau</t>
   </si>
 </sst>
 </file>
@@ -836,7 +945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +1015,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1000,7 +1115,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,6 +1260,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3604,13 +3725,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3624,21 +3745,22 @@
     <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11" style="7" customWidth="1"/>
-    <col min="12" max="16" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="7"/>
-    <col min="21" max="21" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="11.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11" style="7" customWidth="1"/>
+    <col min="13" max="17" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="7"/>
+    <col min="22" max="22" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3664,76 +3786,79 @@
         <v>264</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="K1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="60"/>
       <c r="L1" s="60"/>
       <c r="M1" s="60"/>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="61"/>
       <c r="P1" s="61"/>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="T1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="U1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="V1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J2" s="9" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
       <c r="S2" s="58"/>
       <c r="T2" s="58"/>
       <c r="U2" s="58"/>
-    </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="58"/>
+    </row>
+    <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>203</v>
       </c>
@@ -3744,7 +3869,7 @@
       <c r="F3" s="49"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -3756,12 +3881,13 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="5"/>
+      <c r="V3" s="7"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>204</v>
@@ -3780,7 +3906,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3792,12 +3918,13 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="5"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>207</v>
       </c>
@@ -3821,16 +3948,17 @@
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="5"/>
-      <c r="V5" s="7"/>
+      <c r="L5" s="5"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>218</v>
       </c>
@@ -3848,14 +3976,15 @@
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="5"/>
-      <c r="V6" s="7"/>
+      <c r="L6" s="5"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="5"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="5"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>220</v>
       </c>
@@ -3875,58 +4004,57 @@
       <c r="H7" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="55">
+      <c r="J7" s="55">
         <v>0.375</v>
       </c>
+      <c r="K7" s="7">
+        <v>4</v>
+      </c>
       <c r="L7" s="7">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11</v>
+      </c>
+      <c r="O7" s="7">
+        <v>17</v>
+      </c>
+      <c r="P7" s="7">
         <v>4</v>
       </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
-      <c r="N7" s="7">
-        <v>15</v>
-      </c>
-      <c r="O7" s="7">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7">
-        <v>17</v>
-      </c>
       <c r="Q7" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R7" s="7">
-        <v>14</v>
+        <f>K7+L7+M7+N7</f>
+        <v>39</v>
       </c>
       <c r="S7" s="7">
-        <f>L7+M7+N7+O7</f>
-        <v>39</v>
+        <f>O7+P7+Q7</f>
+        <v>35</v>
       </c>
       <c r="T7" s="7">
-        <f>P7+Q7+R7</f>
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="U7" s="7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="V7" s="7">
-        <v>120</v>
-      </c>
-      <c r="W7" s="7">
-        <f>U7+V7</f>
+        <f>T7+U7</f>
         <v>300</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>225</v>
       </c>
@@ -3945,15 +4073,14 @@
       <c r="H8" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="V8" s="7"/>
+      <c r="L8" s="5"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="5"/>
-      <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="5"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>229</v>
       </c>
@@ -3975,29 +4102,32 @@
       <c r="H9" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="55">
+      <c r="J9" s="55">
         <v>0.625</v>
       </c>
-      <c r="V9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="55"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="5"/>
-      <c r="Z9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4015,7 +4145,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4162,7 +4292,23 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4190,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -4352,4 +4498,242 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
     <sheet name="2016-Cambridge" sheetId="8" r:id="rId2"/>
     <sheet name="2017-TOEIC" sheetId="9" r:id="rId3"/>
-    <sheet name="2017-Cambridge" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
+    <sheet name="2017-Cambridge" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -936,6 +936,15 @@
   </si>
   <si>
     <t>Báo lại sau</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Hiền</t>
+  </si>
+  <si>
+    <t>Phạm Văn Cường</t>
+  </si>
+  <si>
+    <t>Đăng ký mua sách</t>
   </si>
 </sst>
 </file>
@@ -1246,6 +1255,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,12 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1620,30 +1629,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="58" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="62" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1681,14 +1690,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1760,7 +1769,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1824,7 +1833,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1903,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1917,7 +1926,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1941,7 +1950,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2010,7 +2019,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -2055,7 +2064,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -3096,7 +3105,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -3121,7 +3130,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -3150,7 +3159,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -3179,7 +3188,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -3217,7 +3226,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3243,7 +3252,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -3267,7 +3276,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -3291,7 +3300,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -3306,7 +3315,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3321,7 +3330,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3345,7 +3354,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3368,7 +3377,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3389,7 +3398,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="66" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3412,7 +3421,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3727,11 +3736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3791,30 +3800,30 @@
       <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61" t="s">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="58" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="62" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -3852,11 +3861,11 @@
       <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4135,6 +4144,272 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -4293,10 +4568,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="61" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4332,7 +4607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4498,242 +4773,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="311">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -945,6 +945,27 @@
   </si>
   <si>
     <t>Đăng ký mua sách</t>
+  </si>
+  <si>
+    <t>16/4/1998</t>
+  </si>
+  <si>
+    <t>30/7/1997</t>
+  </si>
+  <si>
+    <t>16/10/1996</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>600 từ Toeic</t>
+  </si>
+  <si>
+    <t>Chiều mai 2-4h</t>
+  </si>
+  <si>
+    <t>Chiều T6 2-4h</t>
   </si>
 </sst>
 </file>
@@ -4145,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4161,10 +4182,11 @@
     <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="22" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="18.42578125" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>265</v>
       </c>
@@ -4189,8 +4211,11 @@
       <c r="H1" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4208,7 +4233,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4221,11 +4246,20 @@
       <c r="D3" s="58" t="s">
         <v>288</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="23">
+        <v>34554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4244,8 +4278,14 @@
       <c r="G4" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="23">
+        <v>34579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4265,7 +4305,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4282,7 +4322,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4295,12 +4335,17 @@
       <c r="D7" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4316,8 +4361,14 @@
       <c r="F8" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4333,8 +4384,14 @@
       <c r="F9" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4353,8 +4410,14 @@
       <c r="G10" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="23">
+        <v>35773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4370,8 +4433,14 @@
       <c r="F11" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4381,8 +4450,14 @@
       <c r="D12" s="54" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4392,10 +4467,13 @@
       <c r="D13" s="54" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H13" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="311">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -4169,7 +4169,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4303,6 +4303,9 @@
       </c>
       <c r="G5" s="5" t="s">
         <v>298</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="314">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -966,6 +966,15 @@
   </si>
   <si>
     <t>Chiều T6 2-4h</t>
+  </si>
+  <si>
+    <t>Mai Sỹ</t>
+  </si>
+  <si>
+    <t>Lê Mai Uyên</t>
+  </si>
+  <si>
+    <t>Khanh</t>
   </si>
 </sst>
 </file>
@@ -4168,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4303,9 +4312,6 @@
       </c>
       <c r="G5" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,11 +4503,11 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4665,9 +4671,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="315">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>Khanh</t>
+  </si>
+  <si>
+    <t>7/3/2017</t>
   </si>
 </sst>
 </file>
@@ -3766,11 +3769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3785,9 +3788,7 @@
     <col min="8" max="8" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11" style="7" customWidth="1"/>
-    <col min="13" max="17" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9.140625" style="7"/>
@@ -3908,7 +3909,7 @@
       <c r="F3" s="49"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -3945,7 +3946,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3986,10 +3987,49 @@
         <v>216</v>
       </c>
       <c r="H5" s="50"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11</v>
+      </c>
+      <c r="O5" s="7">
+        <v>14</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>19</v>
+      </c>
+      <c r="R5" s="7">
+        <v>34</v>
+      </c>
+      <c r="S5" s="7">
+        <v>33</v>
+      </c>
+      <c r="T5" s="7">
+        <v>150</v>
+      </c>
+      <c r="U5" s="7">
+        <v>110</v>
+      </c>
+      <c r="V5" s="7">
+        <f>T5+U5</f>
+        <v>260</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="5" t="s">
@@ -4015,7 +4055,7 @@
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="W6" s="7"/>
@@ -4503,7 +4543,7 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="317">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -965,9 +965,6 @@
     <t>Chiều mai 2-4h</t>
   </si>
   <si>
-    <t>Chiều T6 2-4h</t>
-  </si>
-  <si>
     <t>Mai Sỹ</t>
   </si>
   <si>
@@ -978,6 +975,15 @@
   </si>
   <si>
     <t>7/3/2017</t>
+  </si>
+  <si>
+    <t>Nhận sách</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Chiều T6 3-5h</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1163,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1308,6 +1314,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3769,7 +3778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3988,7 +3997,7 @@
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J5" s="55">
         <v>0.625</v>
@@ -4215,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4232,10 +4241,11 @@
     <col min="7" max="7" width="22" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="13.28515625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>265</v>
       </c>
@@ -4263,8 +4273,11 @@
       <c r="I1" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4282,7 +4295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>288</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>199</v>
@@ -4307,8 +4320,11 @@
       <c r="I3" s="23">
         <v>34554</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4334,7 +4350,7 @@
         <v>34579</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4353,8 +4369,11 @@
       <c r="G5" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4371,7 +4390,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4393,8 +4412,11 @@
       <c r="H7" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4416,8 +4438,11 @@
       <c r="I8" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4439,8 +4464,11 @@
       <c r="I9" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4465,8 +4493,11 @@
       <c r="I10" s="23">
         <v>35773</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4488,15 +4519,18 @@
       <c r="I11" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="67" t="s">
         <v>215</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4505,24 +4539,30 @@
       <c r="H12" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="67" t="s">
         <v>222</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J13" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4713,7 +4753,7 @@
     </row>
     <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>85</v>
@@ -4721,10 +4761,10 @@
     </row>
     <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>312</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="318">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>Chiều T6 3-5h</t>
+  </si>
+  <si>
+    <t>30/7/1995</t>
   </si>
 </sst>
 </file>
@@ -1300,6 +1303,9 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,9 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1671,30 +1674,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="62" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="63" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1732,14 +1735,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1811,7 +1814,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1878,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1945,7 +1948,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1968,7 +1971,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +1995,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2061,7 +2064,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -2106,7 +2109,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -3147,7 +3150,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -3172,7 +3175,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -3201,7 +3204,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -3230,7 +3233,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -3268,7 +3271,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3294,7 +3297,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -3318,7 +3321,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -3342,7 +3345,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -3357,7 +3360,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3372,7 +3375,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3396,7 +3399,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3419,7 +3422,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3440,7 +3443,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3463,7 +3466,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3840,30 +3843,30 @@
       <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="62" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="63" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -3901,11 +3904,11 @@
       <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
     </row>
     <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4226,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4389,6 +4392,9 @@
       <c r="F6" s="7" t="s">
         <v>199</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -4530,7 +4536,7 @@
       <c r="B12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="62" t="s">
         <v>215</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4550,7 +4556,7 @@
       <c r="B13" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="62" t="s">
         <v>222</v>
       </c>
       <c r="H13" s="5" t="s">

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="320">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -987,6 +987,12 @@
   </si>
   <si>
     <t>30/7/1995</t>
+  </si>
+  <si>
+    <t>Lê Hồng Sơn</t>
+  </si>
+  <si>
+    <t>0903257124</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1172,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1321,6 +1327,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -4229,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4566,7 +4573,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="68" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="333">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -993,6 +993,45 @@
   </si>
   <si>
     <t>0903257124</t>
+  </si>
+  <si>
+    <t>Tháng 04</t>
+  </si>
+  <si>
+    <t>Huỳnh Linh</t>
+  </si>
+  <si>
+    <t>Đa</t>
+  </si>
+  <si>
+    <t>01688204826</t>
+  </si>
+  <si>
+    <t>Giảm 30.4% học phí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tú </t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Phạm Quang Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Phương </t>
+  </si>
+  <si>
+    <t>0932053958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Xuân </t>
+  </si>
+  <si>
+    <t>Đoàn Thành</t>
+  </si>
+  <si>
+    <t>Lợi</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1211,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,6 +1351,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,7 +1367,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1681,30 +1721,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="63" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="64" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1742,14 +1782,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1821,7 +1861,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1925,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1955,7 +1995,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1978,7 +2018,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -2002,7 +2042,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2071,7 +2111,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -2116,7 +2156,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -3157,7 +3197,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -3182,7 +3222,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -3211,7 +3251,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -3240,7 +3280,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -3278,7 +3318,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3304,7 +3344,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -3328,7 +3368,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -3352,7 +3392,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -3367,7 +3407,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3382,7 +3422,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3406,7 +3446,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3429,7 +3469,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3450,7 +3490,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3473,7 +3513,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3786,13 +3826,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3850,30 +3890,30 @@
       <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66" t="s">
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="63" t="s">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="64" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -3911,11 +3951,11 @@
       <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4214,8 +4254,387 @@
       <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="51">
+        <v>43043</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>13</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9</v>
+      </c>
+      <c r="O10" s="7">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>31</v>
+      </c>
+      <c r="R10" s="7">
+        <f>SUM(K10:N10)</f>
+        <v>40</v>
+      </c>
+      <c r="S10" s="7">
+        <f>SUM(O10:Q10)</f>
+        <v>59</v>
+      </c>
+      <c r="T10" s="7">
+        <v>185</v>
+      </c>
+      <c r="U10" s="7">
+        <v>265</v>
+      </c>
+      <c r="V10" s="7">
+        <f>T10+U10</f>
+        <v>450</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="23">
+        <v>43012</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7">
+        <v>15</v>
+      </c>
+      <c r="M11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8</v>
+      </c>
+      <c r="O11" s="7">
+        <v>25</v>
+      </c>
+      <c r="P11" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>17</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" ref="R11:R16" si="0">SUM(K11:N11)</f>
+        <v>33</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" ref="S11:S16" si="1">SUM(O11:Q11)</f>
+        <v>47</v>
+      </c>
+      <c r="T11" s="7">
+        <v>145</v>
+      </c>
+      <c r="U11" s="7">
+        <v>195</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" ref="V11:V16" si="2">T11+U11</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="23">
+        <v>42829</v>
+      </c>
+      <c r="J12" s="69">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>10</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>7</v>
+      </c>
+      <c r="O12" s="7">
+        <v>20</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>10</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="T12" s="7">
+        <v>125</v>
+      </c>
+      <c r="U12" s="7">
+        <v>95</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="23">
+        <v>42829</v>
+      </c>
+      <c r="J13" s="69">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>14</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4</v>
+      </c>
+      <c r="O13" s="7">
+        <v>17</v>
+      </c>
+      <c r="P13" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>19</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T13" s="7">
+        <v>150</v>
+      </c>
+      <c r="U13" s="7">
+        <v>145</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="23">
+        <v>42829</v>
+      </c>
+      <c r="J14" s="69">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K14" s="7">
+        <v>6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>18</v>
+      </c>
+      <c r="P14" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>16</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T14" s="7">
+        <v>150</v>
+      </c>
+      <c r="U14" s="7">
+        <v>145</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" s="23">
+        <v>42829</v>
+      </c>
+      <c r="J15" s="69">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>15</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" s="7">
+        <v>10</v>
+      </c>
+      <c r="O15" s="7">
+        <v>20</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>15</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="T15" s="7">
+        <v>170</v>
+      </c>
+      <c r="U15" s="7">
+        <v>125</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4236,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -4578,7 +4997,7 @@
         <v>318</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="63" t="s">
         <v>319</v>
       </c>
     </row>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="338">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -1032,6 +1032,21 @@
   </si>
   <si>
     <t>Lợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Khánh </t>
+  </si>
+  <si>
+    <t>01633914625</t>
+  </si>
+  <si>
+    <t>19/4/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thiên </t>
+  </si>
+  <si>
+    <t>0122 913 9696</t>
   </si>
 </sst>
 </file>
@@ -1352,6 +1367,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,7 +1383,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1721,30 +1736,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="64" t="s">
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1782,14 +1797,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1861,7 +1876,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1925,7 +1940,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1995,7 +2010,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2018,7 +2033,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -2042,7 +2057,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2111,7 +2126,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -2156,7 +2171,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -3197,7 +3212,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -3222,7 +3237,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -3251,7 +3266,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -3280,7 +3295,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -3318,7 +3333,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3344,7 +3359,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -3368,7 +3383,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -3392,7 +3407,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -3407,7 +3422,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3422,7 +3437,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3446,7 +3461,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3469,7 +3484,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3490,7 +3505,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3513,7 +3528,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -3826,13 +3841,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3890,30 +3905,30 @@
       <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67" t="s">
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="64" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="65" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -3951,11 +3966,11 @@
       <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
     </row>
     <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3980,7 +3995,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="7"/>
@@ -4017,7 +4032,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="25"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="7"/>
@@ -4085,7 +4100,7 @@
       <c r="U5" s="7">
         <v>110</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="25">
         <f>T5+U5</f>
         <v>260</v>
       </c>
@@ -4117,6 +4132,7 @@
       <c r="J6" s="55"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
+      <c r="V6" s="25"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="5"/>
@@ -4183,7 +4199,7 @@
       <c r="U7" s="7">
         <v>120</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="25">
         <f>T7+U7</f>
         <v>300</v>
       </c>
@@ -4213,6 +4229,7 @@
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
+      <c r="V8" s="25"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="5"/>
@@ -4248,6 +4265,7 @@
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="55"/>
+      <c r="V9" s="25"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="5"/>
@@ -4313,7 +4331,7 @@
       <c r="U10" s="7">
         <v>265</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="25">
         <f>T10+U10</f>
         <v>450</v>
       </c>
@@ -4362,11 +4380,11 @@
         <v>17</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" ref="R11:R16" si="0">SUM(K11:N11)</f>
+        <f t="shared" ref="R11:R17" si="0">SUM(K11:N11)</f>
         <v>33</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" ref="S11:S16" si="1">SUM(O11:Q11)</f>
+        <f t="shared" ref="S11:S17" si="1">SUM(O11:Q11)</f>
         <v>47</v>
       </c>
       <c r="T11" s="7">
@@ -4375,8 +4393,8 @@
       <c r="U11" s="7">
         <v>195</v>
       </c>
-      <c r="V11" s="7">
-        <f t="shared" ref="V11:V16" si="2">T11+U11</f>
+      <c r="V11" s="25">
+        <f t="shared" ref="V11:V17" si="2">T11+U11</f>
         <v>340</v>
       </c>
     </row>
@@ -4396,7 +4414,7 @@
       <c r="I12" s="23">
         <v>42829</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="64">
         <v>0.72916666666666663</v>
       </c>
       <c r="K12" s="7">
@@ -4434,7 +4452,7 @@
       <c r="U12" s="7">
         <v>95</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="25">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
@@ -4461,7 +4479,7 @@
       <c r="I13" s="23">
         <v>42829</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="64">
         <v>0.72916666666666663</v>
       </c>
       <c r="K13" s="7">
@@ -4499,7 +4517,7 @@
       <c r="U13" s="7">
         <v>145</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="25">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
@@ -4517,7 +4535,7 @@
       <c r="I14" s="23">
         <v>42829</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="64">
         <v>0.72916666666666663</v>
       </c>
       <c r="K14" s="7">
@@ -4555,7 +4573,7 @@
       <c r="U14" s="7">
         <v>145</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="25">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
@@ -4579,7 +4597,7 @@
       <c r="I15" s="23">
         <v>42829</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="64">
         <v>0.72916666666666663</v>
       </c>
       <c r="K15" s="7">
@@ -4617,24 +4635,143 @@
       <c r="U15" s="7">
         <v>125</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="25">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" s="64">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>12</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9</v>
+      </c>
+      <c r="O16" s="7">
+        <v>12</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>20</v>
+      </c>
       <c r="R16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
+        <v>35</v>
+      </c>
+      <c r="T16" s="7">
+        <v>130</v>
+      </c>
+      <c r="U16" s="7">
+        <v>120</v>
+      </c>
+      <c r="V16" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J17" s="64">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="K17" s="7">
+        <v>4</v>
+      </c>
+      <c r="L17" s="7">
+        <v>14</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10</v>
+      </c>
+      <c r="O17" s="7">
+        <v>22</v>
+      </c>
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>20</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="T17" s="7">
+        <v>175</v>
+      </c>
+      <c r="U17" s="7">
+        <v>175</v>
+      </c>
+      <c r="V17" s="25">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="25"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2016-TOEIC" sheetId="7" r:id="rId1"/>
-    <sheet name="2016-Cambridge" sheetId="8" r:id="rId2"/>
-    <sheet name="2017-TOEIC" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
-    <sheet name="2017-Cambridge" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
+    <sheet name="2017-Cambridge" sheetId="11" r:id="rId2"/>
+    <sheet name="2016-Cambridge" sheetId="8" r:id="rId3"/>
+    <sheet name="Hoc bong 2017" sheetId="13" r:id="rId4"/>
+    <sheet name="2017-TOEIC" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="317">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -728,9 +727,6 @@
     <t>18/6/1995</t>
   </si>
   <si>
-    <t>17h30-19h</t>
-  </si>
-  <si>
     <t>22/2/2017</t>
   </si>
   <si>
@@ -765,66 +761,6 @@
   </si>
   <si>
     <t>01225511845</t>
-  </si>
-  <si>
-    <t>Thứ 2</t>
-  </si>
-  <si>
-    <t>Thứ 3</t>
-  </si>
-  <si>
-    <t>Thứ 4</t>
-  </si>
-  <si>
-    <t>Thứ 5</t>
-  </si>
-  <si>
-    <t>Thứ 6</t>
-  </si>
-  <si>
-    <t>Thứ 7</t>
-  </si>
-  <si>
-    <t>Chủ nhật</t>
-  </si>
-  <si>
-    <t>7h30-9h</t>
-  </si>
-  <si>
-    <t>Chị Chúc</t>
-  </si>
-  <si>
-    <t>Kết thúc: 31/3</t>
-  </si>
-  <si>
-    <t>9h30-11h</t>
-  </si>
-  <si>
-    <t>Anh Đức</t>
-  </si>
-  <si>
-    <t>13h30-15h</t>
-  </si>
-  <si>
-    <t>15h30-17h</t>
-  </si>
-  <si>
-    <t>Anh Thức</t>
-  </si>
-  <si>
-    <t>Toeic 300-500 - K3</t>
-  </si>
-  <si>
-    <t>6/3 - 4/6</t>
-  </si>
-  <si>
-    <t>7/3 - 4-6</t>
-  </si>
-  <si>
-    <t>19h30-21h</t>
-  </si>
-  <si>
-    <t>Toeic 300-500 - K2</t>
   </si>
   <si>
     <t>MỤC TIÊU ĐẦU RA</t>
@@ -3136,6 +3072,222 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="31" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="56">
+        <v>33299</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="56">
+        <v>33545</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,12 +3991,380 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="23">
+        <v>34554</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="23">
+        <v>34579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="23">
+        <v>35773</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
@@ -3897,7 +4417,7 @@
         <v>110</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>13</v>
@@ -4062,7 +4582,7 @@
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="8" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="J5" s="55">
         <v>0.625</v>
@@ -4258,7 +4778,7 @@
         <v>228</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J9" s="55">
         <v>0.625</v>
@@ -4273,19 +4793,19 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>227</v>
@@ -4336,15 +4856,15 @@
         <v>450</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>35</v>
@@ -4400,10 +4920,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>42</v>
@@ -4459,7 +4979,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>191</v>
@@ -4468,7 +4988,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>227</v>
@@ -4524,7 +5044,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>74</v>
@@ -4580,10 +5100,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>42</v>
@@ -4642,7 +5162,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>52</v>
@@ -4651,10 +5171,10 @@
         <v>35</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="J16" s="64">
         <v>0.63541666666666663</v>
@@ -4701,7 +5221,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>42</v>
@@ -4710,10 +5230,10 @@
         <v>42</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="J17" s="64">
         <v>0.63541666666666663</v>
@@ -4786,753 +5306,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="23">
-        <v>34554</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="23">
-        <v>34579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="23">
-        <v>35773</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="63" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="A1:O22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.28515625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="31" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="56">
-        <v>33299</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="56">
-        <v>33545</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="324">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -983,6 +983,27 @@
   </si>
   <si>
     <t>0122 913 9696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn Minh </t>
+  </si>
+  <si>
+    <t>0945797474</t>
+  </si>
+  <si>
+    <t>550 điểm</t>
+  </si>
+  <si>
+    <t>24/7/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng </t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>22/7/2017</t>
   </si>
 </sst>
 </file>
@@ -4364,10 +4385,10 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4900,11 +4921,11 @@
         <v>17</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" ref="R11:R17" si="0">SUM(K11:N11)</f>
+        <f t="shared" ref="R11:R19" si="0">SUM(K11:N11)</f>
         <v>33</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" ref="S11:S17" si="1">SUM(O11:Q11)</f>
+        <f t="shared" ref="S11:S19" si="1">SUM(O11:Q11)</f>
         <v>47</v>
       </c>
       <c r="T11" s="7">
@@ -4914,7 +4935,7 @@
         <v>195</v>
       </c>
       <c r="V11" s="25">
-        <f t="shared" ref="V11:V17" si="2">T11+U11</f>
+        <f t="shared" ref="V11:V19" si="2">T11+U11</f>
         <v>340</v>
       </c>
     </row>
@@ -5279,10 +5300,128 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="V18" s="25"/>
+      <c r="B18" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="64">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="K18" s="7">
+        <v>6</v>
+      </c>
+      <c r="L18" s="7">
+        <v>17</v>
+      </c>
+      <c r="M18" s="7">
+        <v>9</v>
+      </c>
+      <c r="N18" s="7">
+        <v>15</v>
+      </c>
+      <c r="O18" s="7">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>15</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T18" s="7">
+        <v>230</v>
+      </c>
+      <c r="U18" s="7">
+        <v>145</v>
+      </c>
+      <c r="V18" s="25">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="V19" s="25"/>
+      <c r="B19" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J19" s="64">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>9</v>
+      </c>
+      <c r="M19" s="7">
+        <v>13</v>
+      </c>
+      <c r="N19" s="7">
+        <v>9</v>
+      </c>
+      <c r="O19" s="7">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>18</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="T19" s="7">
+        <v>145</v>
+      </c>
+      <c r="U19" s="7">
+        <v>125</v>
+      </c>
+      <c r="V19" s="25">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="V20" s="25"/>

--- a/Danh Sach Lop/Danh Sach Hoi.xlsx
+++ b/Danh Sach Lop/Danh Sach Hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="324">
   <si>
     <t>Nguyễn Ngọc Anh</t>
   </si>
@@ -1303,9 +1303,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,6 +1336,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1693,30 +1693,30 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="65" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -1754,14 +1754,14 @@
       <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1833,7 +1833,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="7">
@@ -2128,7 +2128,7 @@
       <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
@@ -3213,13 +3213,13 @@
       <c r="C3" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>33299</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="31" t="s">
@@ -3233,13 +3233,13 @@
       <c r="C4" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>33545</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>242</v>
       </c>
       <c r="M4" s="31" t="s">
@@ -3247,10 +3247,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3259,7 +3259,7 @@
       <c r="F5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -3410,7 +3410,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="31" t="s">
         <v>116</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="31" t="s">
         <v>120</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="39" t="s">
         <v>124</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="31" t="s">
         <v>132</v>
       </c>
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="31" t="s">
         <v>135</v>
       </c>
@@ -3580,7 +3580,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="68"/>
       <c r="C9" s="32" t="s">
         <v>137</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="68"/>
       <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="31" t="s">
         <v>141</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="31" t="s">
         <v>145</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="31" t="s">
         <v>149</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -3701,7 +3701,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="C2" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>266</v>
       </c>
       <c r="F2" s="7"/>
@@ -4098,7 +4098,7 @@
       <c r="C3" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>267</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4127,7 +4127,7 @@
       <c r="C4" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>268</v>
       </c>
       <c r="F4" s="7">
@@ -4153,7 +4153,7 @@
       <c r="C5" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -4176,7 +4176,7 @@
       <c r="C6" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -4196,7 +4196,7 @@
       <c r="C7" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -4222,7 +4222,7 @@
       <c r="C8" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
         <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -4248,7 +4248,7 @@
       <c r="C9" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="57" t="s">
         <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -4274,7 +4274,7 @@
       <c r="C10" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -4303,7 +4303,7 @@
       <c r="C11" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4326,7 +4326,7 @@
       <c r="B12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="61" t="s">
         <v>215</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4346,7 +4346,7 @@
       <c r="B13" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="61" t="s">
         <v>222</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -4361,7 +4361,7 @@
         <v>297</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4385,10 +4385,10 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4446,30 +4446,30 @@
       <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68" t="s">
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="65" t="s">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="64" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -4507,11 +4507,11 @@
       <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4524,7 +4524,7 @@
       <c r="F3" s="49"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="55"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="55"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -4583,10 +4583,10 @@
       <c r="A5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="69" t="s">
         <v>213</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -4595,17 +4595,17 @@
       <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>216</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="54">
         <v>0.625</v>
       </c>
       <c r="K5" s="7">
@@ -4653,10 +4653,10 @@
       <c r="AA5" s="7"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="69" t="s">
         <v>181</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="V6" s="25"/>
@@ -4680,20 +4680,20 @@
       <c r="AA6" s="7"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="69" t="s">
         <v>221</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="53" t="s">
         <v>216</v>
       </c>
       <c r="H7" s="49" t="s">
@@ -4702,7 +4702,7 @@
       <c r="I7" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="54">
         <v>0.375</v>
       </c>
       <c r="K7" s="7">
@@ -4801,11 +4801,11 @@
       <c r="I9" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="54">
         <v>0.625</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="54"/>
       <c r="V9" s="25"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -4834,7 +4834,7 @@
       <c r="I10" s="51">
         <v>43043</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="54">
         <v>0.625</v>
       </c>
       <c r="K10" s="7">
@@ -4896,7 +4896,7 @@
       <c r="I11" s="23">
         <v>43012</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="54">
         <v>0.625</v>
       </c>
       <c r="K11" s="7">
@@ -4955,7 +4955,7 @@
       <c r="I12" s="23">
         <v>42829</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="63">
         <v>0.72916666666666663</v>
       </c>
       <c r="K12" s="7">
@@ -5020,7 +5020,7 @@
       <c r="I13" s="23">
         <v>42829</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="63">
         <v>0.72916666666666663</v>
       </c>
       <c r="K13" s="7">
@@ -5076,7 +5076,7 @@
       <c r="I14" s="23">
         <v>42829</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="63">
         <v>0.72916666666666663</v>
       </c>
       <c r="K14" s="7">
@@ -5138,7 +5138,7 @@
       <c r="I15" s="23">
         <v>42829</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="63">
         <v>0.72916666666666663</v>
       </c>
       <c r="K15" s="7">
@@ -5197,7 +5197,7 @@
       <c r="I16" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="63">
         <v>0.63541666666666663</v>
       </c>
       <c r="K16" s="7">
@@ -5240,7 +5240,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>315</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="I17" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="63">
         <v>0.63541666666666663</v>
       </c>
       <c r="K17" s="7">
@@ -5299,7 +5299,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>317</v>
       </c>
@@ -5321,7 +5324,7 @@
       <c r="I18" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="63">
         <v>0.36805555555555558</v>
       </c>
       <c r="K18" s="7">
@@ -5346,11 +5349,11 @@
         <v>15</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(K18:N18)</f>
         <v>47</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(O18:Q18)</f>
         <v>39</v>
       </c>
       <c r="T18" s="7">
@@ -5364,7 +5367,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>321</v>
       </c>
@@ -5380,7 +5383,7 @@
       <c r="I19" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="63">
         <v>0.60416666666666663</v>
       </c>
       <c r="K19" s="7">
@@ -5423,13 +5426,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V20" s="25"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V21" s="25"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V22" s="25"/>
     </row>
   </sheetData>
